--- a/ReactionsClassification.xlsx
+++ b/ReactionsClassification.xlsx
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,7 +462,7 @@
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/ReactionsClassification.xlsx
+++ b/ReactionsClassification.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="57">
   <si>
     <t>Products</t>
   </si>
@@ -99,9 +99,6 @@
     <t>NH3, NO, NH4NO3</t>
   </si>
   <si>
-    <t>Ammonium Oxidation</t>
-  </si>
-  <si>
     <t>NH3, O2</t>
   </si>
   <si>
@@ -124,6 +121,81 @@
   </si>
   <si>
     <t>TiO2 or SiO2 or Al2O3 or Zeolith</t>
+  </si>
+  <si>
+    <t>Ammonium Oxidation_hot</t>
+  </si>
+  <si>
+    <t>Ammonium Oxidation_cold</t>
+  </si>
+  <si>
+    <t>STE</t>
+  </si>
+  <si>
+    <t>Syngas to Ethanol</t>
+  </si>
+  <si>
+    <t>CO2-Methanol</t>
+  </si>
+  <si>
+    <t>CO2 Hydrogenation to Methanol</t>
+  </si>
+  <si>
+    <t>Methanol, Methane, Dimethyl-Ether</t>
+  </si>
+  <si>
+    <t>CO2-Methanol_0</t>
+  </si>
+  <si>
+    <t>CO2-Methanol_1</t>
+  </si>
+  <si>
+    <t>Cu, CuGa</t>
+  </si>
+  <si>
+    <t>STE_Rh</t>
+  </si>
+  <si>
+    <t>Rh-based</t>
+  </si>
+  <si>
+    <t>Indium</t>
+  </si>
+  <si>
+    <t>CO, H2</t>
+  </si>
+  <si>
+    <t>Alkane C1-C4 (methane, …), Alkene (C2-C4), Acetic Acid, Acetaldehyde, Methylacetate, Ethylacetate, C1-C3 Alcohol</t>
+  </si>
+  <si>
+    <t>SiO2 (dürfen aber auch andere sein)</t>
+  </si>
+  <si>
+    <t>220-300 °C</t>
+  </si>
+  <si>
+    <t>40-80 bar</t>
+  </si>
+  <si>
+    <t>Nitrate or chlorine-based</t>
+  </si>
+  <si>
+    <t>STE_Rh-based</t>
+  </si>
+  <si>
+    <t>Acetaldehyde, aldehyde, olefin</t>
+  </si>
+  <si>
+    <t>Alcohol, Parrafin, Acetates</t>
+  </si>
+  <si>
+    <t>CO2, H2</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Micha</t>
   </si>
 </sst>
 </file>
@@ -450,23 +522,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A3" sqref="A3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" customWidth="1"/>
     <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -483,7 +556,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -492,7 +565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -503,10 +576,10 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -517,13 +590,16 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -534,13 +610,16 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -551,13 +630,16 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -568,41 +650,133 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
+      <c r="I8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -613,9 +787,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -640,7 +816,24 @@
         <v>22</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>